--- a/scoresheets_clean/TMFS.xlsx
+++ b/scoresheets_clean/TMFS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Dropbox/Wisconsin/EMBARK Lab/Code/BAM-data-cleaning/scoresheets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4774A0C8-4AA7-7148-94E8-BB5223079284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1134B470-C203-B246-BEE8-01DC86573CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27360" yWindow="5620" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMFS_scoresheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="161" uniqueCount="39">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="200" uniqueCount="45">
   <si>
     <t>raw_vars</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Traditionally, my outer appearance would be considered asÔøΩ</t>
   </si>
   <si>
-    <t>tmfs_self_eval, tmfs_ideal, tmfs_interest, tmfs_attitude, tmfs_behavior, tmfs_appearance</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -142,6 +139,27 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>redcap_event_name</t>
+  </si>
+  <si>
+    <t>record_id, redcap_event_name,tmfs_self_eval, tmfs_ideal, tmfs_interest, tmfs_attitude, tmfs_behavior, tmfs_appearance</t>
+  </si>
+  <si>
+    <t>id, timepoint, tmfs_1_self_eval, tmfs_2_ideal, tmfs_3_interest, tmfs_4_attitude, tmfs_5_behavior, tmfs_6_appearance</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>timepoint</t>
   </si>
 </sst>
 </file>
@@ -625,8 +643,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,85 +1046,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1132,13 +1150,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1167,13 +1185,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1202,13 +1220,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1237,22 +1255,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1272,19 +1290,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1307,121 +1325,121 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1447,16 +1465,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1482,22 +1500,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1517,36 +1535,176 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
         <v>12</v>
       </c>
     </row>

--- a/scoresheets_clean/TMFS.xlsx
+++ b/scoresheets_clean/TMFS.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/BAM/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1134B470-C203-B246-BEE8-01DC86573CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63398BFA-12E8-8447-B61F-BDB85E211B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="5620" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMFS_scoresheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="200" uniqueCount="45">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="247" uniqueCount="55">
   <si>
     <t>raw_vars</t>
   </si>
@@ -153,13 +164,43 @@
     <t>record_id, redcap_event_name,tmfs_self_eval, tmfs_ideal, tmfs_interest, tmfs_attitude, tmfs_behavior, tmfs_appearance</t>
   </si>
   <si>
-    <t>id, timepoint, tmfs_1_self_eval, tmfs_2_ideal, tmfs_3_interest, tmfs_4_attitude, tmfs_5_behavior, tmfs_6_appearance</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>timepoint</t>
+  </si>
+  <si>
+    <t>tmfs_1_self_eval_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_2_ideal_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_3_interest_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_4_attitude_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_5_behavior_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_6_appearance_ctr</t>
+  </si>
+  <si>
+    <t>tmfs_mean_center</t>
+  </si>
+  <si>
+    <t>mean &gt; 0 implies fem, mean &lt; 0 implies masc</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>totally masculine =-3, masculine =-2, somewhat masculine =-1, netiher masculine nor feminine =0, somewhat feminine =1, feminine =2, totally feminine =3</t>
+  </si>
+  <si>
+    <t>1=-3, 2 =-2, 3= -1, 4 = 0, 5 = 1, 6 = 2, 7= 3</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1398,7 +1439,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1640,25 +1681,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1675,25 +1713,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1706,6 +1741,187 @@
       </c>
       <c r="K20" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B19:B24)</f>
+        <v>tmfs_1_self_eval_ctr,tmfs_2_ideal_ctr,tmfs_3_interest_ctr,tmfs_4_attitude_ctr,tmfs_5_behavior_ctr,tmfs_6_appearance_ctr</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
